--- a/rad_pipeline/week_two_fib_layout2.xlsx
+++ b/rad_pipeline/week_two_fib_layout2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
   <si>
     <t>Location</t>
   </si>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>r04c06</t>
-  </si>
-  <si>
-    <t>r02c11</t>
   </si>
   <si>
     <t>r03c12</t>
@@ -547,7 +544,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>0.001</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
@@ -579,7 +576,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>2.0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
@@ -606,14 +603,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="2">
-        <v>0.01</v>
-      </c>
-    </row>
+    <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1"/>
@@ -2222,10 +2212,10 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
@@ -2233,15 +2223,15 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
@@ -2249,31 +2239,31 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -2281,15 +2271,15 @@
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
@@ -2297,119 +2287,119 @@
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">

--- a/rad_pipeline/week_two_fib_layout2.xlsx
+++ b/rad_pipeline/week_two_fib_layout2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="54">
   <si>
     <t>Location</t>
   </si>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>r04c06</t>
-  </si>
-  <si>
-    <t>r03c12</t>
   </si>
   <si>
     <t>r04c11</t>
@@ -536,7 +533,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>0.001</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
@@ -568,7 +565,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>2.0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
@@ -595,14 +592,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="2">
-        <v>0.01</v>
-      </c>
-    </row>
+    <row r="19" ht="15.75" customHeight="1"/>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1">
@@ -2212,10 +2202,10 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
@@ -2223,15 +2213,15 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
@@ -2239,31 +2229,31 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -2271,15 +2261,15 @@
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
@@ -2287,119 +2277,119 @@
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">

--- a/rad_pipeline/week_two_fib_layout2.xlsx
+++ b/rad_pipeline/week_two_fib_layout2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
   <si>
     <t>Location</t>
   </si>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>r04c06</t>
-  </si>
-  <si>
-    <t>r04c11</t>
   </si>
   <si>
     <t>r07c02</t>
@@ -525,7 +522,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>0.001</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
@@ -557,7 +554,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>2.0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
@@ -584,14 +581,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="2">
-        <v>0.01</v>
-      </c>
-    </row>
+    <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -2202,10 +2192,10 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
@@ -2213,15 +2203,15 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
@@ -2229,31 +2219,31 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -2261,15 +2251,15 @@
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
@@ -2277,119 +2267,119 @@
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
